--- a/requirment_list/RequirmentList.xlsx
+++ b/requirment_list/RequirmentList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangeun/4학년1학기 자료/소공/과제/과제2/RecruitSystem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\2023-1\소공\과제2\requirment_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA2D12D-A2C7-4D47-B403-5AD3CFDCFBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF34019-B04D-4CBF-9FFF-9EB1540893AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C9C18215-B099-4785-82A8-17D7A6A55C78}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C9C18215-B099-4785-82A8-17D7A6A55C78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>[지원 정보 관련]</t>
   </si>
@@ -53,9 +53,6 @@
     <t>지원정보조회</t>
   </si>
   <si>
-    <t>지원정보선택</t>
-  </si>
-  <si>
     <t>지원취소</t>
   </si>
   <si>
@@ -504,76 +501,6 @@
         <charset val="129"/>
       </rPr>
       <t>취소한다</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일반회원이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택한다</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -780,7 +707,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -884,7 +811,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1201,27 +1128,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D5DEBA-4D84-4E15-B5A2-F608DB33E286}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" thickBot="1">
+    <row r="1" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="18" thickBot="1">
+    <row r="2" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1232,73 +1159,73 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" thickBot="1">
+    <row r="3" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" thickBot="1">
+    <row r="4" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" thickBot="1">
+    <row r="5" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" thickBot="1">
+    <row r="6" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" thickBot="1">
+    <row r="7" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" thickBot="1">
-      <c r="A8" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1309,7 +1236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1320,7 +1247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1329,17 +1256,6 @@
       </c>
       <c r="C11" s="5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
